--- a/static/excel/Vikram anand pawar_CAR.xlsx
+++ b/static/excel/Vikram anand pawar_CAR.xlsx
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="H2" t="n">
-        <v>1152</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="H3" t="n">
-        <v>1152</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="4">
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="H4" t="n">
-        <v>1152</v>
+        <v>2552</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +769,7 @@
         <v>742</v>
       </c>
       <c r="C2" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +801,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>You are eligible for a new Personal Loan of ₹48423.  We recommend you use this to , Remove Credit Card.</t>
+          <t>You are eligible for a new Personal Loan of ₹107272.  We recommend you use this to , Remove Credit Card.</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48423</v>
+        <v>107272</v>
       </c>
     </row>
     <row r="3">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19459</v>
+        <v>78308</v>
       </c>
     </row>
   </sheetData>
